--- a/Resources/Swan_ECHE313_Grade.xlsx
+++ b/Resources/Swan_ECHE313_Grade.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f4dc847ec8b5479/Documents/CWRU/Spring 2025/ECHE313/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="8_{B5DD087E-ED86-46F2-9B04-5EBF7E0C0EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC6623DC-0A2A-48FA-9D5A-E69A0452AB66}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="8_{B5DD087E-ED86-46F2-9B04-5EBF7E0C0EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E04B262C-82E9-46DD-9F99-73C3732BB349}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-960" windowWidth="25820" windowHeight="15500" xr2:uid="{AA1E5637-5A12-4BE7-B88A-559D61691A7E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{AA1E5637-5A12-4BE7-B88A-559D61691A7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -252,7 +252,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -279,6 +279,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -288,24 +300,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -333,12 +339,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,7 +682,7 @@
   <dimension ref="B2:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,18 +699,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
-      <c r="F2" s="16" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="22"/>
+      <c r="F2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="18"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="22"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -769,7 +770,7 @@
       <c r="B5" s="5">
         <v>241.25</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="17">
         <v>250</v>
       </c>
       <c r="D5" s="6">
@@ -794,13 +795,13 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="18">
         <v>0.5</v>
       </c>
-      <c r="D6" s="22"/>
+      <c r="D6" s="19"/>
       <c r="F6" s="5" t="s">
         <v>13</v>
       </c>
@@ -838,11 +839,11 @@
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
       <c r="F8" s="5" t="s">
         <v>15</v>
       </c>
@@ -889,14 +890,14 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
-        <v>77</v>
+        <v>77.5</v>
       </c>
       <c r="C10">
         <v>100</v>
       </c>
       <c r="D10" s="6">
         <f>B10/C10</f>
-        <v>0.77</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>17</v>
@@ -919,22 +920,22 @@
       <c r="B11" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="25">
         <v>0.3</v>
       </c>
-      <c r="D11" s="20"/>
+      <c r="D11" s="26"/>
       <c r="F11" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G11">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H11">
         <v>20</v>
       </c>
       <c r="I11" s="9">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="J11" s="10">
         <v>1</v>
@@ -942,27 +943,27 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="24"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
       <c r="F12" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G12">
-        <v>19</v>
+        <v>19.75</v>
       </c>
       <c r="H12">
         <v>20</v>
       </c>
       <c r="I12" s="9">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.98750000000000004</v>
       </c>
       <c r="J12" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="36" t="s">
         <v>20</v>
       </c>
       <c r="G13" s="11">
@@ -980,11 +981,11 @@
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
       <c r="F14" s="14"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
@@ -994,65 +995,65 @@
       <c r="B15" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="25">
         <f>SUM(C6,C11,0.2)</f>
         <v>1</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="F15" s="31" t="s">
+      <c r="D15" s="26"/>
+      <c r="F15" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="33"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="35"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="24"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22"/>
-      <c r="F16" s="25">
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
+      <c r="F16" s="27">
         <f>100*((C6/COUNT(C4:C5))*SUM(D4:D5)+D10*C11+SUM(I4:I12)*(0.2/COUNT(J4:J12)))</f>
-        <v>90.341666666666669</v>
-      </c>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="27"/>
+        <v>90.241666666666674</v>
+      </c>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="29"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="14"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="29"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="14"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="F16:J18"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="F15:J15"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F2:J2"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:D12"/>
-    <mergeCell ref="F16:J18"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="F15:J15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
